--- a/example/test2.xlsx
+++ b/example/test2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Samples" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bar" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisitions" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,549 +437,156 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Parameter/ Index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>bar_name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>sample_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sample_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>project_name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>institution</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>proposal_id</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>bar_spot</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>front</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>grazing</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>angle</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>height</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>sample_desc</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>project_desc</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>sample_priority</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>sample_set</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>components</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>composition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>thickness</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>density</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sample_date</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>bar_loc</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>data_session</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>analysis_dir</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>SAF</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>proposal</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>acq_history</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>testbar</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>p_1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>p3ht</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NIST</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>310704</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>180</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>something about the sample</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>I'm doing science</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>I'd like to start by calling into question the whole concept of a polymer.  What do we really know about these things??</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>opvs</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>p3ht</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>C1234H342O2F65</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>125</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2022-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>{"spot": "1A"}</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>pass-310704</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>/nsls2/data/sst/proposals/commissioning/pass-310704</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>309218</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>{"proposal_id": "310704", "data_session": "pass-310704", "instruments": ["SST1"], "pass_type_id": "300005", "safs": [{"saf_id": "309218", "status": "APPROVED", "instruments": ["SST1"]}, {"saf_id": "309227", "status": "EXPIRED", "instruments": ["SST1"]}], "title": "RSoXS / PGM grating comissioning", "type": "Beamline Commissioning (beamline staff only)", "users": [{"first_name": "Eliot", "last_name": "Gann", "email": "egann@bnl.gov", "bnl_id": "E8622", "is_pi": true, "username": "egann"}]}</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>"[]"</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>testbar</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>p_2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>pcbm</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NIST</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>310704</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>soemthing special about this samples</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>I'm doing science</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>do a carbon scan at a bunch of different energies</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>opvs</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>pcbm</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>C60</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>10</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2022-12-31 00:00:00</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>{"spot": "2B"}</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>pass-310704</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>/nsls2/data/sst/proposals/commissioning/pass-310704</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>309218</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>{"proposal_id": "310704", "data_session": "pass-310704", "instruments": ["SST1"], "pass_type_id": "300005", "safs": [{"saf_id": "309218", "status": "APPROVED", "instruments": ["SST1"]}, {"saf_id": "309227", "status": "EXPIRED", "instruments": ["SST1"]}], "title": "RSoXS / PGM grating comissioning", "type": "Beamline Commissioning (beamline staff only)", "users": [{"first_name": "Eliot", "last_name": "Gann", "email": "egann@bnl.gov", "bnl_id": "E8622", "is_pi": true, "username": "egann"}]}</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>"[]"</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sample_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>configuration</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>priority</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>edge</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>diameter</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>spiral_step</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>cycles</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>pol_mode</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>polarizations</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>angles</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>temperatures</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>temp ramp speed</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>wait at temperature</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>grating</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>diode range</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>ratios</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>frames</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>repeats</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>"c"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -996,43 +603,23 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>"spiral"</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1047,33 +634,21 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>"c"</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -1090,38 +665,22 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>"spiral"</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -1137,43 +696,532 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>testbar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>p_1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>p3ht</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NIST</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>310704</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>180</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>something about the sample</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>I'm doing science</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>I'd like to start by calling into question the whole concept of a polymer.  What do we really know about these things??</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>opvs</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>p3ht</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>C1234H342O2F65</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>125</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2023-01-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>{"spot": "1A"}</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>pass-310704</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>/nsls2/data/sst/proposals/commissioning/pass-310704</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>309218</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>{"proposal_id": "310704", "data_session": "pass-310704", "instruments": ["SST1"], "pass_type_id": "300005", "safs": [{"saf_id": "309218", "status": "APPROVED", "instruments": ["SST1"]}, {"saf_id": "309227", "status": "EXPIRED", "instruments": ["SST1"]}], "title": "RSoXS / PGM grating comissioning", "type": "Beamline Commissioning (beamline staff only)", "users": [{"first_name": "Eliot", "last_name": "Gann", "email": "egann@bnl.gov", "bnl_id": "E8622", "is_pi": true, "username": "egann"}]}</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>"[]"</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>testbar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>p_2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>pcbm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NIST</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>310704</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>soemthing special about this samples</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>I'm doing science</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>do a carbon scan at a bunch of different energies</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>opvs</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>pcbm</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>C60</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>10</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2023-01-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>{"spot": "2B"}</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>pass-310704</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>/nsls2/data/sst/proposals/commissioning/pass-310704</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>309218</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>{"proposal_id": "310704", "data_session": "pass-310704", "instruments": ["SST1"], "pass_type_id": "300005", "safs": [{"saf_id": "309218", "status": "APPROVED", "instruments": ["SST1"]}, {"saf_id": "309227", "status": "EXPIRED", "instruments": ["SST1"]}], "title": "RSoXS / PGM grating comissioning", "type": "Beamline Commissioning (beamline staff only)", "users": [{"first_name": "Eliot", "last_name": "Gann", "email": "egann@bnl.gov", "bnl_id": "E8622", "is_pi": true, "username": "egann"}]}</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>"[]"</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter/ Index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>configuration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>edge</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>diameter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>spiral_step</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>cycles</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>pol_mode</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>polarizations</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>angles</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>temperatures</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>temp ramp speed</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>wait at temperature</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>grating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>diode_range</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ratios</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>repeats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
+          <t>"c"</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1188,44 +1236,49 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>"spiral"</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>270</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1239,45 +1292,42 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>"f"</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>"fast"</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -1290,45 +1340,46 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>"o"</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -1341,52 +1392,53 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>"sample"</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>[20, 40, 55, 70, 90]</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1396,230 +1448,267 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>[20, 40, 80]</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>"f"</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>"fast"</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>"o"</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>"sample"</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[20.0, 40.0, 55.0, 70.0, 90.0]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>"low"</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1627,46 +1716,59 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>"none"</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[20, 40, 80]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1677,39 +1779,48 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1720,43 +1831,48 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1770,40 +1886,45 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[2, 1, 10]</t>
+          <t>"low"</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1817,44 +1938,45 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
+          <t>"none"</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1866,46 +1988,43 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>[270, 280, 290, 400]</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1917,55 +2036,52 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>500.0</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>[0, 90, -1]</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1973,37 +2089,46 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -2016,100 +2141,106 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[1, ["less than", 280], 5]</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>[0, 20, 50, 80]</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>[35, 50, 80, 150]</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -2119,91 +2250,105 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
-      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[0, 90, -1]</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>"high"</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -2214,86 +2359,112 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>"none"</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>[1, ["less than", 280], 5]</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[0, 20, 50, 80]</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>[35, 50, 80, 150]</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2304,39 +2475,48 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2348,38 +2528,47 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>"high"</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -2391,44 +2580,57 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>"none"</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>"p_1"</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>[90]</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2438,40 +2640,49 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>"p_2"</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"p_1"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[0.0, 90.0]</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2481,34 +2692,39 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>"p_2"</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"p_1"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>"f"</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2524,43 +2740,40 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>"p_2"</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>"SAXSNEXAFS"</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>"spiral"</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>59</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
+          <t>"c"</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2575,43 +2788,40 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>"p_2"</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"p_1"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
+          <t>"c"</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2626,34 +2836,39 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -2669,45 +2884,42 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>"f"</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>"normal"</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -2720,45 +2932,50 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>"n"</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -2771,36 +2988,49 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[120, 150, 180, 300]</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2810,55 +3040,48 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>[1, 5, 1]</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>"lab"</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>[20, 40, 55, 70, 90]</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -2869,128 +3092,151 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>"normal"</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>"n"</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[120.0, 150.0, 180.0, 300.0]</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -3001,90 +3247,104 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>"high"</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>[1.0, 5.0, 1.0]</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>"lab"</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>[20, 40, 55, 70, 90]</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>"high"</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -3095,39 +3355,48 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>"nexafs"</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -3138,39 +3407,48 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -3184,40 +3462,45 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[2, 1, 10]</t>
+          <t>"high"</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -3231,44 +3514,45 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+          <t>"high"</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -3280,46 +3564,43 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -3331,46 +3612,43 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>[270, 280, 290, 400]</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -3382,156 +3660,159 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>500.0</t>
-        </is>
-      </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>[0, 90, -1]</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>[0, 20, 50, 80]</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>[35, 50, 80, 150]</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -3541,44 +3822,53 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -3588,91 +3878,113 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>[0, 90, -1]</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>[0, 20, 50, 80]</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>"low"</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -3680,42 +3992,59 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>[35, 50, 80, 150]</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3726,39 +4055,48 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -3769,39 +4107,48 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -3813,38 +4160,47 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>"low"</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>"p_2"</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>"c"</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3860,6 +4216,207 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>[20.0, 60.0]</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/example/test2.xlsx
+++ b/example/test2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,12 +582,425 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>testbar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>p_1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>p3ht</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NIST</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>310704</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>180</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>something about the sample</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>I'm doing science</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>I'd like to start by calling into question the whole concept of a polymer.  What do we really know about these things??</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>opvs</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>p3ht</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>C1234H342O2F65</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>125</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2023-01-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>{"spot": "1A"}</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>pass-310704</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>/nsls2/data/sst/proposals/commissioning/pass-310704</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>309218</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>{"proposal_id": "310704", "data_session": "pass-310704", "instruments": ["SST1"], "pass_type_id": "300005", "safs": [{"saf_id": "309218", "status": "APPROVED", "instruments": ["SST1"]}, {"saf_id": "309227", "status": "EXPIRED", "instruments": ["SST1"]}], "title": "RSoXS / PGM grating comissioning", "type": "Beamline Commissioning (beamline staff only)", "users": [{"first_name": "Eliot", "last_name": "Gann", "email": "egann@bnl.gov", "bnl_id": "E8622", "is_pi": true, "username": "egann"}]}</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>"\"[]\""</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>testbar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>p_2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pcbm</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NIST</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>310704</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>soemthing special about this samples</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>I'm doing science</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>do a carbon scan at a bunch of different energies</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>opvs</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>pcbm</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>C60</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2023-01-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>{"spot": "2B"}</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>pass-310704</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>/nsls2/data/sst/proposals/commissioning/pass-310704</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>309218</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>{"proposal_id": "310704", "data_session": "pass-310704", "instruments": ["SST1"], "pass_type_id": "300005", "safs": [{"saf_id": "309218", "status": "APPROVED", "instruments": ["SST1"]}, {"saf_id": "309227", "status": "EXPIRED", "instruments": ["SST1"]}], "title": "RSoXS / PGM grating comissioning", "type": "Beamline Commissioning (beamline staff only)", "users": [{"first_name": "Eliot", "last_name": "Gann", "email": "egann@bnl.gov", "bnl_id": "E8622", "is_pi": true, "username": "egann"}]}</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>"\"[]\""</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Parameter/ Index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>configuration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>edge</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>diameter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>spiral_step</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>cycles</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>pol_mode</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>polarizations</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>angles</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>temperatures</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>temp ramp speed</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>wait at temperature</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>grating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>diode_range</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ratios</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>repeats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -604,23 +1017,48 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>"spiral"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -635,21 +1073,38 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>"c"</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -666,22 +1121,43 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>"spiral"</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -697,503 +1173,11 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>testbar</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>p_1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>p3ht</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NIST</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>310704</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>180</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>something about the sample</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>I'm doing science</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>I'd like to start by calling into question the whole concept of a polymer.  What do we really know about these things??</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>opvs</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>p3ht</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>C1234H342O2F65</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>125</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>2023-01-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>{"spot": "1A"}</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>pass-310704</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>/nsls2/data/sst/proposals/commissioning/pass-310704</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>309218</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>{"proposal_id": "310704", "data_session": "pass-310704", "instruments": ["SST1"], "pass_type_id": "300005", "safs": [{"saf_id": "309218", "status": "APPROVED", "instruments": ["SST1"]}, {"saf_id": "309227", "status": "EXPIRED", "instruments": ["SST1"]}], "title": "RSoXS / PGM grating comissioning", "type": "Beamline Commissioning (beamline staff only)", "users": [{"first_name": "Eliot", "last_name": "Gann", "email": "egann@bnl.gov", "bnl_id": "E8622", "is_pi": true, "username": "egann"}]}</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>"[]"</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>testbar</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>p_2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>pcbm</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NIST</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>310704</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>20</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>soemthing special about this samples</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>I'm doing science</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>do a carbon scan at a bunch of different energies</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>opvs</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>pcbm</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>C60</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
-        <v>10</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>2023-01-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>{"spot": "2B"}</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>pass-310704</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>/nsls2/data/sst/proposals/commissioning/pass-310704</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>309218</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>{"proposal_id": "310704", "data_session": "pass-310704", "instruments": ["SST1"], "pass_type_id": "300005", "safs": [{"saf_id": "309218", "status": "APPROVED", "instruments": ["SST1"]}, {"saf_id": "309227", "status": "EXPIRED", "instruments": ["SST1"]}], "title": "RSoXS / PGM grating comissioning", "type": "Beamline Commissioning (beamline staff only)", "users": [{"first_name": "Eliot", "last_name": "Gann", "email": "egann@bnl.gov", "bnl_id": "E8622", "is_pi": true, "username": "egann"}]}</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>"[]"</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:V66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Parameter/ Index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sample_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>configuration</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>priority</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>edge</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>diameter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>spiral_step</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>cycles</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>pol_mode</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>polarizations</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>angles</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>temperatures</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>temp ramp speed</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>wait at temperature</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>grating</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>diode_range</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>ratios</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>frames</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>repeats</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1203,26 +1187,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1241,7 +1233,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1251,7 +1243,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1261,7 +1253,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1271,12 +1263,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1297,7 +1289,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1307,7 +1299,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1317,18 +1309,26 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>"f"</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>"fast"</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1355,32 +1355,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
+          <t>"o"</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1397,7 +1401,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1407,39 +1411,43 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
+          <t>"c"</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>"sample"</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[20.0, 40.0, 55.0, 70.0, 90.0]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -1453,7 +1461,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1463,42 +1471,46 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
+          <t>"c"</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[20, 40, 80]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
@@ -1509,7 +1521,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1519,7 +1531,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1529,33 +1541,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>"f"</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>"fast"</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1565,7 +1573,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1575,7 +1583,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1585,33 +1593,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>"o"</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1621,7 +1625,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1631,7 +1635,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1641,7 +1645,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1653,26 +1657,18 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>"sample"</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[20.0, 40.0, 55.0, 70.0, 90.0]</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>"low"</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1681,7 +1677,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1691,7 +1687,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1701,7 +1697,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1716,23 +1712,15 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>[20, 40, 80]</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>"none"</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
@@ -1741,7 +1729,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1751,7 +1739,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1761,7 +1749,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1779,11 +1767,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1793,7 +1777,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1803,22 +1787,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1831,13 +1815,13 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -1845,7 +1829,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1855,22 +1839,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1884,12 +1868,12 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>"low"</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -1897,7 +1881,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1907,22 +1891,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1936,20 +1920,24 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>"none"</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1959,22 +1947,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1989,15 +1977,23 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2007,7 +2003,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2017,7 +2013,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2042,14 +2038,18 @@
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -2082,18 +2082,18 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[0, 90, -1]</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -2141,23 +2141,19 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>[1, ["less than", 280], 5]</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2167,7 +2163,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2177,12 +2173,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -2191,29 +2187,37 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[0, 20, 50, 80]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[35, 50, 80, 150]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2223,7 +2227,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2233,12 +2237,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -2251,25 +2255,21 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>500.0</t>
-        </is>
-      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2302,17 +2302,17 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>[0, 90, -1]</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>"high"</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2360,20 +2360,20 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>"none"</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>[1, ["less than", 280], 5]</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2406,27 +2406,15 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>[0, 20, 50, 80]</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>[35, 50, 80, 150]</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[90]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
@@ -2437,7 +2425,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2447,7 +2435,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2457,7 +2445,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2470,16 +2458,16 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[0.0, 90.0]</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -2489,7 +2477,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2499,7 +2487,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2509,7 +2497,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2528,11 +2516,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>"high"</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
@@ -2541,7 +2525,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2551,7 +2535,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2561,7 +2545,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2580,11 +2564,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>"none"</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2593,7 +2573,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2603,7 +2583,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2613,7 +2593,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2626,11 +2606,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>[90]</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2645,27 +2621,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"p_1"</t>
+          <t>"p_2"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2678,11 +2654,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>[0.0, 90.0]</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2697,17 +2669,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"p_1"</t>
+          <t>"p_2"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2717,12 +2689,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>"f"</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2745,12 +2717,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"p_1"</t>
+          <t>"p_2"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2760,21 +2732,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -2793,36 +2773,44 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"p_1"</t>
+          <t>"p_2"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -2841,7 +2829,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2851,22 +2839,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>270</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2889,7 +2877,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2899,28 +2887,36 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>"f"</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>"normal"</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2937,7 +2933,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2947,36 +2943,36 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>"n"</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2993,7 +2989,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3003,34 +2999,26 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
+          <t>[120.0, 150.0, 180.0, 300.0]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -3041,7 +3029,11 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>[1.0, 5.0, 1.0]</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -3049,7 +3041,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3059,30 +3051,38 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>"lab"</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>[20, 40, 55, 70, 90]</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3097,7 +3097,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3127,23 +3127,19 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>"normal"</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -3153,7 +3149,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3163,7 +3159,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3173,33 +3169,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>"n"</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -3209,7 +3201,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3219,7 +3211,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3229,12 +3221,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[120.0, 150.0, 180.0, 300.0]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -3248,12 +3240,12 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>[1.0, 5.0, 1.0]</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>"high"</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -3261,7 +3253,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3271,7 +3263,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3281,7 +3273,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3293,22 +3285,18 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>"lab"</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>[20, 40, 55, 70, 90]</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>"high"</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3317,7 +3305,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3327,7 +3315,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3337,7 +3325,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3355,11 +3343,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -3369,7 +3353,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3379,7 +3363,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3389,7 +3373,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3407,11 +3391,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -3421,7 +3401,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3431,22 +3411,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3460,12 +3440,12 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>"high"</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3473,7 +3453,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3483,22 +3463,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3512,20 +3492,24 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>"high"</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3535,22 +3519,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3565,15 +3549,23 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3583,22 +3575,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3613,15 +3605,23 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3666,14 +3666,22 @@
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3683,7 +3691,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3693,12 +3701,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3706,30 +3714,30 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>[0, 90, -1]</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>[0, 20, 50, 80]</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3739,7 +3747,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3749,12 +3757,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3764,28 +3772,32 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>[35, 50, 80, 150]</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3795,7 +3807,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3805,12 +3817,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3823,25 +3835,21 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3851,7 +3859,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3861,12 +3869,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3879,29 +3887,21 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>500.0</t>
-        </is>
-      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
+      <c r="V56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3934,21 +3934,17 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>[0, 90, -1]</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>[0, 20, 50, 80]</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>"low"</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3957,7 +3953,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3967,7 +3963,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3977,7 +3973,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3992,21 +3988,9 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>[35, 50, 80, 150]</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
@@ -4017,7 +4001,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4027,7 +4011,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4037,7 +4021,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4050,16 +4034,16 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -4069,7 +4053,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4079,7 +4063,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4089,7 +4073,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4104,14 +4088,14 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>[20.0, 60.0]</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -4121,7 +4105,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4131,7 +4115,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4141,7 +4125,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4160,11 +4144,7 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>"low"</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -4173,7 +4153,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4183,7 +4163,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4193,7 +4173,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4218,206 +4198,6 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>[20.0, 60.0]</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>"c"</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/example/test2.xlsx
+++ b/example/test2.xlsx
@@ -557,27 +557,27 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>acq_history</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>data_session</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>analysis_dir</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>SAF</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>proposal</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>acq_history</t>
         </is>
       </c>
     </row>
@@ -686,27 +686,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>"[]"</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>pass-310704</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>/nsls2/data/sst/proposals/commissioning/pass-310704</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>309218</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>{"proposal_id": "310704", "data_session": "pass-310704", "instruments": ["SST1"], "pass_type_id": "300005", "safs": [{"saf_id": "309218", "status": "APPROVED", "instruments": ["SST1"]}, {"saf_id": "309227", "status": "EXPIRED", "instruments": ["SST1"]}], "title": "RSoXS / PGM grating comissioning", "type": "Beamline Commissioning (beamline staff only)", "users": [{"first_name": "Eliot", "last_name": "Gann", "email": "egann@bnl.gov", "bnl_id": "E8622", "is_pi": true, "username": "egann"}]}</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>"\"[]\""</t>
         </is>
       </c>
     </row>
@@ -815,27 +815,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>"[]"</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>pass-310704</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>/nsls2/data/sst/proposals/commissioning/pass-310704</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>309218</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>{"proposal_id": "310704", "data_session": "pass-310704", "instruments": ["SST1"], "pass_type_id": "300005", "safs": [{"saf_id": "309218", "status": "APPROVED", "instruments": ["SST1"]}, {"saf_id": "309227", "status": "EXPIRED", "instruments": ["SST1"]}], "title": "RSoXS / PGM grating comissioning", "type": "Beamline Commissioning (beamline staff only)", "users": [{"first_name": "Eliot", "last_name": "Gann", "email": "egann@bnl.gov", "bnl_id": "E8622", "is_pi": true, "username": "egann"}]}</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>"\"[]\""</t>
         </is>
       </c>
     </row>

--- a/example/test2.xlsx
+++ b/example/test2.xlsx
@@ -850,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,33 +959,38 @@
           <t>repeats</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -993,7 +998,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"3d05816e-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495a044-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -1009,33 +1014,34 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>"spiral"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>"spiral"</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>270</t>
@@ -1043,7 +1049,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"3d05847a-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495a346-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1067,33 +1073,34 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -1101,7 +1108,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"3d0586b4-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495a576-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -1117,33 +1124,34 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>"spiral"</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>"spiral"</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>270</t>
@@ -1151,7 +1159,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"3d058880-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495a742-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1171,33 +1179,34 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>"spiral"</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>"spiral"</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>270</t>
@@ -1205,7 +1214,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"3d058a42-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495a904-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1229,33 +1238,34 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>"spiral"</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>"spiral"</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>270</t>
@@ -1263,7 +1273,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"3d058c0e-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495aac6-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1287,33 +1297,34 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>"f"</t>
@@ -1321,7 +1332,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"3d058e5c-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495ad14-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1345,33 +1356,34 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>"o"</t>
@@ -1379,7 +1391,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"3d05906e-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495af1c-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1403,33 +1415,34 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -1437,7 +1450,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"3d0593a2-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495b200-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1465,33 +1478,34 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -1499,7 +1513,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"3d059618-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495b46c-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1515,33 +1529,34 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -1549,7 +1564,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"3d059848-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495b6ec-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1569,33 +1584,34 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -1603,7 +1619,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"3d059ac8-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495b91c-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1623,33 +1639,34 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -1657,7 +1674,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>"3d059d02-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495bb60-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1677,33 +1694,34 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -1711,7 +1729,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>"3d059f28-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495bda4-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1731,33 +1749,34 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -1765,7 +1784,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>"3d05a112-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495bfac-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1781,33 +1800,34 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>[270, 280, 290, 400]</t>
@@ -1815,7 +1835,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"3d05a310-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495c1be-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1835,33 +1855,34 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>[270, 280, 290, 400]</t>
@@ -1869,7 +1890,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"3d05a50e-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495c3d0-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1889,33 +1910,34 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>[270, 280, 290, 400]</t>
@@ -1923,7 +1945,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"3d05a6f8-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495c5e2-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1947,33 +1969,34 @@
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>[270, 280, 290, 400]</t>
@@ -1981,7 +2004,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"3d05a982-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495c7f4-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2005,33 +2028,34 @@
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>[270, 280, 290, 400]</t>
@@ -2039,7 +2063,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"3d05ab8a-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495ca06-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2063,33 +2087,34 @@
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2097,7 +2122,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"3d05adba-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495cc40-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2117,33 +2142,34 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2151,7 +2177,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"3d05b026-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495ceb6-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2171,33 +2197,34 @@
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2205,7 +2232,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"3d05b24c-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495d0e6-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -2225,33 +2252,34 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2259,7 +2287,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"3d05b472-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495d30c-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -2279,33 +2307,34 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2313,7 +2342,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"3d05b698-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495d58c-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2333,33 +2362,34 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2367,7 +2397,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"3d05b90e-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495d7bc-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -2387,33 +2417,34 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2421,7 +2452,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"3d05bb20-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495d9b0-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -2441,33 +2472,34 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2475,7 +2507,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>"3d05bd6e-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495dc12-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2495,33 +2527,34 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2529,7 +2562,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>"3d05bf80-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495de06-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -2545,33 +2578,34 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2579,7 +2613,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>"3d05c17e-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495dff0-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2595,33 +2629,34 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>"p_1"</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>61</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>"p_1"</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2629,7 +2664,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>"3d05c386-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495e1da-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2645,33 +2680,34 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2679,7 +2715,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>"3d05836c-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495a238-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2695,33 +2731,34 @@
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>"f"</t>
@@ -2729,7 +2766,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>"3d05859c-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495a468-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -2745,33 +2782,34 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>"spiral"</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>"spiral"</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>270</t>
@@ -2779,7 +2817,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>"3d05879a-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495a65c-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2803,33 +2841,34 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>"spiral"</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>"spiral"</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>240</t>
@@ -2837,7 +2876,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>"3d058966-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495a828-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2861,33 +2900,34 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>"spiral"</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>"spiral"</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>270</t>
@@ -2895,7 +2935,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>"3d058b28-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495a9e0-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2911,33 +2951,34 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -2945,7 +2986,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>"3d058d3a-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495abe8-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2969,33 +3010,34 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>"n"</t>
@@ -3003,7 +3045,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>"3d058f60-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495ae18-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -3027,33 +3069,34 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>[120.0, 150.0, 180.0, 300.0]</t>
@@ -3061,7 +3104,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>"3d059226-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495b084-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -3081,33 +3124,34 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3115,7 +3159,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>"3d059500-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495b35e-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -3139,33 +3183,34 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3173,7 +3218,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>"3d059744-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495b5de-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -3193,33 +3238,34 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3227,7 +3273,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>"3d0599ba-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495b7fa-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -3247,33 +3293,34 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3281,7 +3328,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>"3d059bea-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495ba3e-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -3301,33 +3348,34 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3335,7 +3383,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>"3d059e10-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495bc82-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -3355,33 +3403,34 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3389,7 +3438,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>"3d05a022-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495bea8-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -3405,33 +3454,34 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3439,7 +3489,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>"3d05a20c-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495c0b0-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -3455,33 +3505,34 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>[270, 280, 290, 400]</t>
@@ -3489,7 +3540,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>"3d05a40a-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495c2cc-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -3509,33 +3560,34 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>[270, 280, 290, 400]</t>
@@ -3543,7 +3595,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>"3d05a608-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495c4de-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -3567,33 +3619,34 @@
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>[270, 280, 290, 400]</t>
@@ -3601,7 +3654,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>"3d05a7f2-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495c6f0-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3625,33 +3678,34 @@
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>[270, 280, 290, 400]</t>
@@ -3659,7 +3713,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>"3d05aa86-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495c902-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -3683,33 +3737,34 @@
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>[270, 280, 290, 400]</t>
@@ -3717,7 +3772,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>"3d05ac98-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495cb14-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3745,33 +3800,34 @@
           <t>10.0</t>
         </is>
       </c>
+      <c r="U52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3779,7 +3835,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>"3d05aefa-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495cd80-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -3803,33 +3859,34 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3837,7 +3894,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>"3d05b12a-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495cfba-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -3853,33 +3910,34 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3887,7 +3945,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>"3d05b36e-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495d208-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -3907,33 +3965,34 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3941,7 +4000,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>"3d05b576-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495d410-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -3961,33 +4020,34 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -3995,7 +4055,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>"3d05b7e2-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495d6a4-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -4015,33 +4075,34 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -4049,7 +4110,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>"3d05ba12-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495d8b6-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -4065,33 +4126,34 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -4099,7 +4161,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>"3d05bc24-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495daaa-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -4119,33 +4181,34 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -4153,7 +4216,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>"3d05be7c-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495dd0c-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -4169,33 +4232,34 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -4203,7 +4267,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>"3d05c084-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495df00-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -4219,33 +4283,34 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>"SAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>"SAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>"c"</t>
@@ -4253,7 +4318,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>"3d05c282-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495e0e0-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -4269,33 +4334,34 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>"WAXSNEXAFS"</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>"nexafs"</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>"WAXSNEXAFS"</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>"nexafs"</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>"o"</t>
@@ -4303,7 +4369,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>"3d05c48a-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495e2ca-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -4319,33 +4385,34 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>"WAXS_liquid"</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>"WAXS_liquid"</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>"o"</t>
@@ -4353,7 +4420,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>"3d05c58e-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495e3c4-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -4369,33 +4436,34 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>"SAXS_liquid"</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>"SAXS_liquid"</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>"o"</t>
@@ -4403,7 +4471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>"3d05c692-8ef0-11ed-9c39-3cecef3ab271"</t>
+          <t>"b495e4b4-8efd-11ed-9899-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -4419,6 +4487,247 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>"b495e5d6-8efd-11ed-9899-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>"groupA"</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>"b495e6ee-8efd-11ed-9899-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>"groupA"</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>"b495e806-8efd-11ed-9899-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>"groupA"</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>"b495e91e-8efd-11ed-9899-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>"groupA"</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/example/test2.xlsx
+++ b/example/test2.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2023-01-07 00:00:00</t>
+          <t>2023-01-08 00:00:00</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2023-01-07 00:00:00</t>
+          <t>2023-01-08 00:00:00</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -850,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,27 +941,27 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>ratios</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>frames</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>exposure_time</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>repeats</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"b495a044-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8d742-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"b495a346-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8da8a-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"b495a576-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8dcba-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"b495a742-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8de7c-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"b495a904-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8e02a-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"b495aac6-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8e1ec-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"b495ad14-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8e43a-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"b495af1c-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8e64c-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"b495b200-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8e930-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"b495b46c-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8eb9c-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"b495b6ec-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8edc2-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"b495b91c-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8efe8-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>"b495bb60-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8f268-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1690,7 +1690,11 @@
           <t>"low"</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>"diodeRangeTest"</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1729,7 +1733,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>"b495bda4-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8f4de-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1745,7 +1749,11 @@
           <t>"none"</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>"diodeRangeTest"</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1784,7 +1792,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>"b495bfac-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8f6dc-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1835,7 +1843,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"b495c1be-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8f8ee-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1847,12 +1855,12 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
@@ -1890,7 +1898,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"b495c3d0-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8fb0a-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1902,12 +1910,12 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
@@ -1945,7 +1953,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"b495c5e2-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8fd1c-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1957,17 +1965,17 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
     </row>
@@ -2004,7 +2012,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"b495c7f4-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8ff2e-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2016,17 +2024,17 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
     </row>
@@ -2063,7 +2071,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"b495ca06-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90190-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2075,17 +2083,17 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>500.0</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
     </row>
@@ -2122,7 +2130,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"b495cc40-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba903c0-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2177,7 +2185,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"b495ceb6-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90622-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2191,12 +2199,12 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
         <is>
           <t>[1, ["less than", 280], 5]</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2232,7 +2240,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"b495d0e6-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90848-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -2287,7 +2295,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"b495d30c-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90a6e-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -2342,7 +2350,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"b495d58c-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90c94-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2397,7 +2405,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"b495d7bc-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90ed8-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -2452,7 +2460,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"b495d9b0-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba910ea-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -2507,7 +2515,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>"b495dc12-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba91342-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2562,7 +2570,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>"b495de06-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba9154a-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -2613,7 +2621,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>"b495dff0-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba91748-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2664,7 +2672,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>"b495e1da-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba91946-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2685,12 +2693,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"p_2"</t>
+          <t>"p_1"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2705,7 +2713,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2715,11 +2723,15 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>"b495a238-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba92260-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>3111.0</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -2727,50 +2739,70 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>"invalidParamTest"</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>"test2"</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>"test"</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"p_2"</t>
+          <t>"p_1"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>"f"</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>"b495a468-8efd-11ed-9899-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+          <t>"8ba923aa-8f1a-11ed-a2ed-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -2778,8 +2810,16 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>"invalidParamTest"</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>"ab"</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2787,7 +2827,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2797,39 +2837,31 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>"b495a65c-8efd-11ed-9899-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
+          <t>"8ba8d972-8f1a-11ed-a2ed-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -2846,7 +2878,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2856,39 +2888,31 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>"f"</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>"b495a828-8efd-11ed-9899-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
+          <t>"8ba8dbac-8f1a-11ed-a2ed-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -2905,7 +2929,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2915,7 +2939,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2925,7 +2949,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2935,11 +2959,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>"b495a9e0-8efd-11ed-9899-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+          <t>"8ba8dd96-8f1a-11ed-a2ed-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -2956,7 +2988,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2966,41 +2998,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>240</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>"b495abe8-8efd-11ed-9899-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>"normal"</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>"8ba8df58-8f1a-11ed-a2ed-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -3015,7 +3047,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3025,41 +3057,33 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>"n"</t>
+          <t>270</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>"b495ae18-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8e106-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -3074,7 +3098,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3084,7 +3108,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3094,33 +3118,37 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[120.0, 150.0, 180.0, 300.0]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>"b495b084-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8e318-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>"normal"</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>[1.0, 5.0, 1.0]</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -3129,7 +3157,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3139,7 +3167,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3149,33 +3177,33 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>"n"</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>"b495b35e-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8e53e-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>"lab"</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>[20, 40, 55, 70, 90]</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -3188,7 +3216,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3198,7 +3226,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3208,17 +3236,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[120.0, 150.0, 180.0, 300.0]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>"b495b5de-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8e7b4-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -3228,14 +3256,14 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>[1.0, 5.0, 1.0]</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -3243,7 +3271,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3253,7 +3281,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3263,7 +3291,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3273,21 +3301,25 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>"b495b7fa-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8ea8e-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>"lab"</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>[20, 40, 55, 70, 90]</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -3298,7 +3330,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3308,7 +3340,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3318,7 +3350,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3328,7 +3360,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>"b495ba3e-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8ecbe-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -3338,12 +3370,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>"high"</t>
-        </is>
-      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
@@ -3353,7 +3385,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3363,7 +3395,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3373,7 +3405,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3383,7 +3415,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>"b495bc82-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8eec6-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -3393,12 +3425,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>"high"</t>
-        </is>
-      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
@@ -3408,7 +3440,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3418,7 +3450,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3428,7 +3460,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3438,7 +3470,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>"b495bea8-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8f128-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -3449,8 +3481,16 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>"high"</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>"diodeRangeTest"</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -3459,7 +3499,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3469,7 +3509,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3479,7 +3519,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3489,7 +3529,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>"b495c0b0-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8f39e-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -3500,8 +3540,16 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>"high"</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>"diodeRangeTest"</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -3510,7 +3558,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3520,27 +3568,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>"b495c2cc-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8f5e2-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -3552,11 +3600,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -3565,7 +3609,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3575,27 +3619,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>"b495c4de-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8f7e0-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -3607,16 +3651,8 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3624,7 +3660,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3634,7 +3670,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3644,7 +3680,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3654,7 +3690,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>"b495c6f0-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8f9fc-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3666,14 +3702,10 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>20.0</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3683,7 +3715,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3693,7 +3725,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3703,7 +3735,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3713,7 +3745,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>"b495c902-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8fc0e-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -3725,24 +3757,24 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3752,7 +3784,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3762,7 +3794,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3772,7 +3804,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>"b495cb14-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba8fe2a-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3784,28 +3816,24 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>500.0</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3815,7 +3843,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3825,17 +3853,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>"b495cd80-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90082-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -3843,28 +3871,28 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>[0, 90, -1]</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>[0, 20, 50, 80]</t>
-        </is>
-      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3874,7 +3902,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3884,17 +3912,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>"b495cfba-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90294-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -3907,15 +3935,27 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3925,7 +3965,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3935,7 +3975,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3945,7 +3985,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>"b495d208-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba904f6-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -3953,13 +3993,17 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>[0, 90, -1]</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>[0, 20, 50, 80]</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -3970,7 +4014,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3980,7 +4024,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3990,7 +4034,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4000,7 +4044,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>"b495d410-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90726-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -4010,11 +4054,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -4025,7 +4065,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4035,7 +4075,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4045,7 +4085,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4055,7 +4095,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>"b495d6a4-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba9096a-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -4065,12 +4105,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>"low"</t>
-        </is>
-      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
@@ -4080,7 +4120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4090,7 +4130,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4100,7 +4140,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4110,7 +4150,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>"b495d8b6-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90b72-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -4120,7 +4160,11 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -4131,7 +4175,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4141,7 +4185,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4151,7 +4195,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4161,7 +4205,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>"b495daaa-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90db6-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -4169,14 +4213,14 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>[0]</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>"low"</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -4186,7 +4230,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4196,7 +4240,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4206,7 +4250,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4216,7 +4260,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>"b495dd0c-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba90fdc-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -4237,7 +4281,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4247,7 +4291,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4257,7 +4301,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4267,7 +4311,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>"b495df00-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba911f8-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -4275,7 +4319,11 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
@@ -4288,7 +4336,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4298,7 +4346,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4308,7 +4356,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4318,7 +4366,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>"b495e0e0-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba91446-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -4339,7 +4387,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4349,27 +4397,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"WAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>"o"</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>"b495e2ca-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba91644-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -4390,7 +4438,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4400,7 +4448,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"WAXS_liquid"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4410,17 +4458,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>"o"</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>"b495e3c4-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba9184c-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -4441,7 +4489,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4451,17 +4499,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"SAXS_liquid"</t>
+          <t>"WAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4471,7 +4519,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>"b495e4b4-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba91a4a-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -4492,7 +4540,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4502,7 +4550,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS_liquid"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4512,17 +4560,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"o"</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>"b495e5d6-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba91b4e-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -4534,24 +4582,16 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>"groupA"</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4561,7 +4601,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS_liquid"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4571,17 +4611,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"o"</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>"b495e6ee-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba91c52-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -4593,24 +4633,16 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>"groupA"</t>
-        </is>
-      </c>
+      <c r="U67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4620,7 +4652,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4630,7 +4662,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4640,7 +4672,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>"b495e806-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba91d7e-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -4654,22 +4686,22 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>"groupA"</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>"groupA"</t>
-        </is>
-      </c>
+      <c r="U68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4679,7 +4711,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4689,7 +4721,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4699,7 +4731,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>"b495e91e-8efd-11ed-9899-3cecef3ab271"</t>
+          <t>"8ba91eaa-8f1a-11ed-a2ed-3cecef3ab271"</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -4713,19 +4745,208 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>"groupA"</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
           <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>5.0</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
+      <c r="U69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>"WAXS"</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>"8ba91fcc-8f1a-11ed-a2ed-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
         <is>
           <t>"groupA"</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>"8ba920f8-8f1a-11ed-a2ed-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>"groupA"</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>"p_2"</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>"SAXS"</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[270, 280, 290, 400]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>"8ba92512-8f1a-11ed-a2ed-3cecef3ab271"</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>[-600]</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>"invalidParamTest"</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>"cat"</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>"rat"</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>"mat"</t>
         </is>
       </c>
     </row>

--- a/example/test2.xlsx
+++ b/example/test2.xlsx
@@ -850,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U72"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,52 +896,52 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>diameter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>spiral_step</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cycles</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>pol_mode</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>polarizations</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>angles</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>grating</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>diode_range</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -998,10 +998,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"8ba8d742-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>"02d88fc2-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -1049,20 +1053,24 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"8ba8da8a-8f1a-11ed-a2ed-3cecef3ab271"</t>
+          <t>"02d894e0-8f6d-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>2.1</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -1108,10 +1116,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"8ba8dcba-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>"02d898aa-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -1159,15 +1171,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"8ba8de7c-8f1a-11ed-a2ed-3cecef3ab271"</t>
+          <t>"02d89bb6-8f6d-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -1214,20 +1230,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"8ba8e02a-8f1a-11ed-a2ed-3cecef3ab271"</t>
+          <t>"02d89f30-8f6d-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -1273,20 +1293,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"8ba8e1ec-8f1a-11ed-a2ed-3cecef3ab271"</t>
+          <t>"02d8a232-8f6d-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>0.1</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -1332,22 +1356,26 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"8ba8e43a-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>"02d8a638-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>"fast"</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1391,22 +1419,26 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"8ba8e64c-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>"02d8a9c6-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1450,29 +1482,33 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"8ba8e930-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>"02d8aebc-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
         <is>
           <t>"sample"</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>[20.0, 40.0, 55.0, 70.0, 90.0]</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>[20]</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1513,10 +1549,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"8ba8eb9c-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>"02d8b2e0-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1564,22 +1604,26 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"8ba8edc2-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>"02d8b6a0-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
         <is>
           <t>1200</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1619,22 +1663,26 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"8ba8efe8-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>"02d8ba56-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
         <is>
           <t>"rsoxs"</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1674,10 +1722,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>"8ba8f268-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>"02d8beac-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>"diodeRangeTest"</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1685,14 +1737,10 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>"low"</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>"diodeRangeTest"</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1733,10 +1781,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>"8ba8f4de-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>"02d8c2f8-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>"diodeRangeTest"</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1744,14 +1796,10 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>"none"</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>"diodeRangeTest"</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
@@ -1792,10 +1840,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>"8ba8f6dc-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>"02d8c6ae-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1843,10 +1895,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"8ba8f8ee-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>"02d8ca3c-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1898,10 +1954,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"8ba8fb0a-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>"02d8cdca-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1953,10 +2013,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"8ba8fd1c-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>"02d8d158-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1973,7 +2037,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2012,10 +2076,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"8ba8ff2e-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>"02d8d4dc-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2032,7 +2100,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -2071,10 +2139,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"8ba90190-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>"02d8d856-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2091,7 +2163,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -2130,20 +2202,24 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"8ba903c0-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>"02d8dc16-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
         <is>
           <t>[0, 90, -1]</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -2185,10 +2261,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"8ba90622-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>"02d8e03a-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2240,21 +2320,25 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"8ba90848-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>"02d8e3fa-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
         <is>
           <t>[0, 20, 50, 80]</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -2295,22 +2379,26 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"8ba90a6e-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>"02d8e7ba-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>1200</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -2350,10 +2438,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"8ba90c94-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>"02d8ebb6-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2361,12 +2453,12 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>"high"</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2405,10 +2497,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"8ba90ed8-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>"02d8efa8-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2416,12 +2512,12 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>"none"</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -2460,20 +2556,24 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"8ba910ea-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>"02d8f336-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
         <is>
           <t>[90]</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -2515,20 +2615,24 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>"8ba91342-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>"02d8fa52-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
         <is>
           <t>[0.0, 90.0]</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2570,10 +2674,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>"8ba9154a-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>"02d8fe12-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2621,10 +2729,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>"8ba91748-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>"02d901a0-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2672,10 +2784,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>"8ba91946-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>"02d90524-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -2693,12 +2809,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"p_1"</t>
+          <t>"p_2"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2713,7 +2829,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2723,15 +2839,15 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>"8ba92260-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>3111.0</t>
-        </is>
-      </c>
+          <t>"02d89300-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -2739,70 +2855,54 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>"invalidParamTest"</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>"test2"</t>
-        </is>
-      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>"test"</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"p_1"</t>
+          <t>"p_2"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>"f"</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>"8ba923aa-8f1a-11ed-a2ed-3cecef3ab271"</t>
+          <t>"02d896d4-8f6d-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>223.0</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -2810,16 +2910,8 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>"invalidParamTest"</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>"ab"</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2827,7 +2919,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2837,32 +2929,44 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>270</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>"8ba8d972-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>"02d89a30-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2878,7 +2982,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2888,32 +2992,44 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"spiral"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>"f"</t>
+          <t>240</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>"8ba8dbac-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>"02d89da0-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2929,7 +3045,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2939,7 +3055,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2949,7 +3065,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2959,19 +3075,15 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>"8ba8dd96-8f1a-11ed-a2ed-3cecef3ab271"</t>
+          <t>"02d8a0b6-8f6d-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -2988,7 +3100,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2998,42 +3110,46 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>"8ba8df58-8f1a-11ed-a2ed-3cecef3ab271"</t>
+          <t>"02d8a43a-8f6d-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>"normal"</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3047,7 +3163,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3057,34 +3173,46 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>"spiral"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>"n"</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>"8ba8e106-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>"02d8a7fa-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3098,7 +3226,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3108,7 +3236,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3118,38 +3246,38 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[120.0, 150.0, 180.0, 300.0]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>"8ba8e318-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>"02d8ac32-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>"normal"</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>[1.0, 5.0, 1.0]</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -3157,7 +3285,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3167,7 +3295,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3177,34 +3305,38 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>"n"</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>"8ba8e53e-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>"02d8b114-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>"lab"</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>[20, 40, 55, 70, 90]</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -3216,7 +3348,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3226,7 +3358,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3236,20 +3368,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[120.0, 150.0, 180.0, 300.0]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>"8ba8e7b4-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>"02d8b4d4-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -3257,13 +3393,13 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>[1.0, 5.0, 1.0]</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -3271,7 +3407,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3281,7 +3417,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3291,7 +3427,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3301,26 +3437,26 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>"8ba8ea8e-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
+          <t>"02d8b862-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>"lab"</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>[20, 40, 55, 70, 90]</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
@@ -3330,7 +3466,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3340,7 +3476,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3350,7 +3486,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3360,23 +3496,27 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>"8ba8ecbe-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>"02d8bc86-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>"diodeRangeTest"</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>"high"</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -3385,7 +3525,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3395,7 +3535,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3405,7 +3545,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3415,23 +3555,27 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>"8ba8eec6-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+          <t>"02d8c0d2-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>"diodeRangeTest"</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>"high"</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -3440,7 +3584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3450,7 +3594,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3460,7 +3604,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3470,10 +3614,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>"8ba8f128-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>"02d8c4ec-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -3481,16 +3629,8 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>"high"</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>"diodeRangeTest"</t>
-        </is>
-      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -3499,7 +3639,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3509,7 +3649,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3519,7 +3659,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3529,10 +3669,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>"8ba8f39e-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>"02d8c870-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -3540,16 +3684,8 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>"high"</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>"diodeRangeTest"</t>
-        </is>
-      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -3558,7 +3694,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3568,30 +3704,34 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>"8ba8f5e2-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>"02d8cc08-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -3601,7 +3741,11 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3609,7 +3753,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3619,30 +3763,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>"8ba8f7e0-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>"02d8cf8c-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -3652,15 +3800,23 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3670,7 +3826,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3680,7 +3836,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3690,10 +3846,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>"8ba8f9fc-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>"02d8d31a-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -3708,14 +3868,18 @@
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3725,7 +3889,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3735,7 +3899,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3745,10 +3909,14 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>"8ba8fc0e-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>"02d8d694-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -3765,7 +3933,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -3774,7 +3942,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3784,7 +3952,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3794,7 +3962,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3804,10 +3972,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>"8ba8fe2a-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>"02d8da18-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -3824,16 +3996,20 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3843,7 +4019,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3853,46 +4029,50 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>"8ba90082-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
+          <t>"02d8de3c-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>[0, 90, -1]</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[0, 20, 50, 80]</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3902,7 +4082,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3912,20 +4092,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[270, 280, 290, 400]</t>
+          <t>"c"</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>"8ba90294-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>"02d8e206-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -3935,27 +4119,15 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3965,7 +4137,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3975,7 +4147,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3985,26 +4157,26 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>"8ba904f6-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>"02d8e5ee-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>[0, 90, -1]</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>[0, 20, 50, 80]</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>"rsoxs"</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
@@ -4014,7 +4186,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4024,7 +4196,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4034,7 +4206,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4044,10 +4216,14 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>"8ba90726-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t>"02d8e986-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -4055,7 +4231,11 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
@@ -4065,7 +4245,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4075,7 +4255,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4085,7 +4265,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4095,23 +4275,27 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>"8ba9096a-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>"02d8edb4-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>"low"</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
@@ -4120,7 +4304,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4130,7 +4314,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4140,7 +4324,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4150,21 +4334,21 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>"8ba90b72-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>"02d8f16a-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -4175,7 +4359,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4185,7 +4369,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4195,7 +4379,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4205,22 +4389,26 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>"8ba90db6-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>"02d8f4f8-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>"low"</t>
-        </is>
-      </c>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -4230,7 +4418,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4240,7 +4428,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4250,7 +4438,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4260,10 +4448,14 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>"8ba90fdc-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+          <t>"02d8fc46-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -4281,7 +4473,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4291,7 +4483,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4301,7 +4493,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4311,19 +4503,19 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>"8ba911f8-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t>"02d8ffde-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>[0]</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
@@ -4336,7 +4528,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4346,7 +4538,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4356,7 +4548,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4366,10 +4558,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>"8ba91446-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t>"02d90362-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -4387,7 +4583,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4397,30 +4593,34 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXSNEXAFS"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>"rsoxs"</t>
+          <t>"nexafs"</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>"o"</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>"8ba91644-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>"02d906e6-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -4438,7 +4638,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4448,7 +4648,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS_liquid"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4458,20 +4658,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>"o"</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>"8ba9184c-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>"02d908a8-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -4489,7 +4693,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4499,17 +4703,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"WAXSNEXAFS"</t>
+          <t>"SAXS_liquid"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>"nexafs"</t>
+          <t>"rsoxs"</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4519,10 +4723,14 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>"8ba91a4a-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t>"02d90a6a-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -4540,7 +4748,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4550,7 +4758,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"WAXS_liquid"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4560,20 +4768,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>"o"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>"8ba91b4e-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
+          <t>"02d90c7c-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>"groupA"</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -4583,7 +4795,11 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -4591,7 +4807,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4601,7 +4817,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"SAXS_liquid"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4611,20 +4827,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>"o"</t>
+          <t>[270, 280, 290, 400]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>"8ba91c52-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>"02d90e7a-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>"groupA"</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -4634,7 +4854,11 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>[2, 1, 10]</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -4642,7 +4866,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4652,7 +4876,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"SAXS"</t>
+          <t>"WAXS"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4662,7 +4886,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4672,10 +4896,14 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>"8ba91d7e-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+          <t>"02d9106e-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>"groupA"</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -4684,11 +4912,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>"groupA"</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
@@ -4701,7 +4925,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4711,7 +4935,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4721,7 +4945,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>68</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4731,10 +4955,14 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>"8ba91eaa-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
+          <t>"02d912a8-8f6d-11ed-adfb-3cecef3aae95"</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>"groupA"</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -4743,212 +4971,19 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>"groupA"</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
           <t>[2, 1, 10]</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>"WAXS"</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>[270, 280, 290, 400]</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>"8ba91fcc-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>"groupA"</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>[270, 280, 290, 400]</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>"8ba920f8-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>"groupA"</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>[2, 1, 10]</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>"p_2"</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>"SAXS"</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>"rsoxs"</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>[270, 280, 290, 400]</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>"8ba92512-8f1a-11ed-a2ed-3cecef3ab271"</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>[-600]</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>"invalidParamTest"</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>"cat"</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>"rat"</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>"mat"</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/example/test2.xlsx
+++ b/example/test2.xlsx
@@ -998,7 +998,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"02d88fc2-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae861e-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"02d894e0-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae8b0a-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"02d898aa-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae8eca-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"02d89bb6-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae91cc-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"02d89f30-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae9532-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"02d8a232-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae983e-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"02d8a638-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae9c44-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"02d8a9c6-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae9fdc-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"02d8aebc-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aea4d2-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"02d8b2e0-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aea8f6-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"02d8b6a0-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeacb6-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"02d8ba56-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeb076-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>"02d8beac-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeb4c2-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>"02d8c2f8-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeb8fa-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>"02d8c6ae-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aebcb0-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"02d8ca3c-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aec048-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"02d8cdca-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aec3ea-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"02d8d158-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aec778-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"02d8d4dc-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aecb06-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"02d8d856-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aece80-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"02d8dc16-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aed24a-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"02d8e03a-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aed66e-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"02d8e3fa-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeda1a-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"02d8e7ba-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeddc6-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"02d8ebb6-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aee168-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"02d8efa8-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aee578-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"02d8f336-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aee8f2-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>"02d8fa52-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeece4-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>"02d8fe12-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aef20c-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>"02d901a0-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aef586-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>"02d90524-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aef900-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>"02d89300-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae892a-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>"02d896d4-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae8cf4-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>"02d89a30-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae9050-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>"02d89da0-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae9352-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>"02d8a0b6-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae96b8-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>"02d8a43a-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae9a50-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>"02d8a7fa-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80ae9e10-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>"02d8ac32-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aea248-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>"02d8b114-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aea720-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>"02d8b4d4-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeaaf4-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>"02d8b862-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeae78-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>"02d8bc86-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeb29c-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>"02d8c0d2-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeb6de-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>"02d8c4ec-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aebaee-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>"02d8c870-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aebe72-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>"02d8cc08-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aec21e-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>"02d8cf8c-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aec5b6-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>"02d8d31a-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aec944-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>"02d8d694-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeccbe-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>"02d8da18-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aed042-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>"02d8de3c-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aed466-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>"02d8e206-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aed830-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>"02d8e5ee-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aedc0e-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>"02d8e986-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aedf7e-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>"02d8edb4-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aee38e-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>"02d8f16a-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aee730-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>"02d8f4f8-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aeeab4-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>"02d8fc46-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aef02c-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>"02d8ffde-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aef3ce-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>"02d90362-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aef73e-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>"02d906e6-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aefac2-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>"02d908a8-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aefc7a-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>"02d90a6a-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80aefe28-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>"02d90c7c-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80af0030-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>"02d90e7a-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80af022e-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>"02d9106e-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80af0422-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>"02d912a8-8f6d-11ed-adfb-3cecef3aae95"</t>
+          <t>"80af0620-8f76-11ed-adfb-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">

--- a/example/test2.xlsx
+++ b/example/test2.xlsx
@@ -998,7 +998,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"80ae861e-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"40109c16-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"80ae8b0a-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010a0c6-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"80ae8eca-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010a4a4-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"80ae91cc-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010a7f6-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"80ae9532-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010aae4-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"80ae983e-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010adf0-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"80ae9c44-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010b1ce-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"80ae9fdc-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010b53e-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"80aea4d2-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010ba0c-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"80aea8f6-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010be12-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"80aeacb6-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010c1c8-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"80aeb076-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010c56a-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>"80aeb4c2-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010c9a2-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>"80aeb8fa-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010ce0c-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>"80aebcb0-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010d186-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"80aec048-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010d4f6-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"80aec3ea-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010d87a-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"80aec778-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010dbf4-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"80aecb06-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010df64-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"80aece80-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010e2ca-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"80aed24a-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010e676-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"80aed66e-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010ea68-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"80aeda1a-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010ee00-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"80aeddc6-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010f18e-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"80aee168-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010f562-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"80aee578-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010f940-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"80aee8f2-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010fcba-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>"80aeece4-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4011008e-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>"80aef20c-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"40111312-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>"80aef586-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"401116d2-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>"80aef900-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"40111a4c-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>"80ae892a-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"40109efa-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>"80ae8cf4-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010a2ba-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>"80ae9050-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010a666-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>"80ae9352-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010a972-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>"80ae96b8-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010ac6a-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>"80ae9a50-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010afe4-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>"80ae9e10-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010b386-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>"80aea248-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010b796-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>"80aea720-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010bc50-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>"80aeaaf4-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010c006-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3432,12 +3432,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>"c"</t>
+          <t>"asd"</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>"80aeae78-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010c380-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>"80aeb29c-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010c790-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>"80aeb6de-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010cbaa-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>"80aebaee-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010cfce-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>"80aebe72-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010d334-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>"80aec21e-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010d6b8-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>"80aec5b6-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010da3c-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>"80aec944-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010ddac-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>"80aeccbe-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010e11c-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>"80aed042-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010e482-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>"80aed466-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010e87e-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>"80aed830-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010ec2a-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>"80aedc0e-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010efe0-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>"80aedf7e-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010f346-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>"80aee38e-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010f74c-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>"80aee730-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010faf8-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>"80aeeab4-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4010fe72-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>"80aef02c-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"40110246-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>"80aef3ce-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"4011151a-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>"80aef73e-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"40111894-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>"80aefac2-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"40111c40-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>"80aefc7a-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"40111e0c-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>"80aefe28-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"40111fc4-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>"80af0030-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"401121c2-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>"80af022e-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"401123b6-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>"80af0422-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"401125aa-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>"80af0620-8f76-11ed-adfb-3cecef3aae95"</t>
+          <t>"40112794-8f79-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">

--- a/example/test2.xlsx
+++ b/example/test2.xlsx
@@ -998,7 +998,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"40109c16-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020ef02c-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"4010a0c6-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020ef61c-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"4010a4a4-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020efa0e-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"4010a7f6-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020efd10-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"4010aae4-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020efffe-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"4010adf0-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f02ec-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"4010b1ce-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f06e8-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"4010b53e-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f0a94-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"4010ba0c-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f102a-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"4010be12-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f1458-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"4010c1c8-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f182c-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"4010c56a-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f1bec-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>"4010c9a2-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f204c-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>"4010ce0c-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f24a2-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>"4010d186-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f283a-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"4010d4f6-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f2bd2-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"4010d87a-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f2f6a-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"4010dbf4-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f32f8-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"4010df64-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f36cc-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>"4010e2ca-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f3a5a-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"4010e676-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f3e2e-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"4010ea68-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f4248-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"4010ee00-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f4626-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"4010f18e-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f49e6-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>"4010f562-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f4d92-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"4010f940-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f5170-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"4010fcba-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f5512-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>"4011008e-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f5904-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>"40111312-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f5cc4-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS_liquid"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>"401116d2-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f6048-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>"40111a4c-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f63cc-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>"40109efa-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020ef43c-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>"4010a2ba-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020ef81a-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>"4010a666-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020efb94-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>"4010a972-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020efe8c-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>"4010ac6a-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f017a-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>"4010afe4-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f04f4-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>"4010b386-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f08be-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>"4010b796-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f0d3c-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>"4010bc50-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f1282-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>"4010c006-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f1660-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3432,12 +3432,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>"asd"</t>
+          <t>"Carbon"</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>"4010c380-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f19f8-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>"4010c790-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f1e1c-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>"4010cbaa-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f227c-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>"4010cfce-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f266e-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>"4010d334-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f2a06-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>"4010d6b8-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f2d9e-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>"4010da3c-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f312c-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>"4010ddac-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f3500-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>"4010e11c-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f3898-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>"4010e482-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f3c26-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>"4010e87e-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f4054-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>"4010ec2a-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f4428-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>"4010efe0-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f481a-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>"4010f346-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f4ba8-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>"4010f74c-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f4f86-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>"4010faf8-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f5346-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"SAXS_liquid"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>"4010fe72-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f56de-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"WAXS"</t>
+          <t>"WAXS_liquid"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>"40110246-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f5ad0-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>"4011151a-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f5e90-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"SAXSNEXAFS"</t>
+          <t>"WAXS_liquid"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>"40111894-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f620a-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"WAXSNEXAFS"</t>
+          <t>"WAXS_liquid"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>"40111c40-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f658e-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>"40111e0c-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f675a-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>"40111fc4-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f6926-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>"401121c2-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f6b42-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>"401123b6-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f6d36-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>"401125aa-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f6f2a-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>"40112794-8f79-11ed-b373-3cecef3aae95"</t>
+          <t>"020f7128-8f7c-11ed-b373-3cecef3aae95"</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
